--- a/119/Comparaison des temps.xlsx
+++ b/119/Comparaison des temps.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Explorateur de fichier\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Explorateur de fichier\Desktop\Cours\L2\S4\Projet ISIMA\119\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F440930B-FFCE-4588-9628-A149ED003F90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A53C8F4-9306-4C29-8412-B18E3FE8D485}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{755CF7AC-4D66-4A91-8ED1-3C9CC5AE7FFB}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.0000000000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0000000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -315,96 +315,96 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1104,7 +1104,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="t" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1145,7 +1145,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="t" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -1844,15 +1844,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>164523</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>8659</xdr:rowOff>
+      <xdr:colOff>1307523</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>270597</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>287046</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>668046</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2177,23 +2177,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D070BF36-5329-4DF9-BB65-58045B011EC8}">
-  <dimension ref="B4:J37"/>
+  <dimension ref="B1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10" style="31" customWidth="1"/>
-    <col min="3" max="3" width="10" style="32" customWidth="1"/>
+    <col min="2" max="2" width="10" style="22" customWidth="1"/>
+    <col min="3" max="3" width="10" style="23" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" style="3" customWidth="1"/>
     <col min="5" max="8" width="46.28515625" style="3" customWidth="1"/>
     <col min="9" max="10" width="35.140625" style="3" customWidth="1"/>
     <col min="11" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1"/>
+    </row>
     <row r="4" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -2205,642 +2208,637 @@
     <row r="6" spans="2:10" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="32"/>
+      <c r="G6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="27"/>
     </row>
     <row r="7" spans="2:10" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="2:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="15">
+      <c r="D8" s="10">
         <v>1</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="11">
         <v>81</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="12">
         <v>0</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="13">
         <v>81</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="14">
         <v>0</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="21"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" spans="2:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="22">
+      <c r="D9" s="17">
         <v>2</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="11">
         <v>512</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="12">
         <v>9.3722343444824197E-4</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="13">
         <v>512</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="14">
         <v>0</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="21"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="2:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="22">
+      <c r="D10" s="17">
         <v>3</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="11">
         <v>2401</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="12">
         <v>6.0114860534667899E-3</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="13">
         <v>2401</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="14">
         <v>9.9802017211913997E-4</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="21"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
     </row>
     <row r="11" spans="2:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="22">
+      <c r="D11" s="17">
         <v>4</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="11">
         <v>4913</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="12">
         <v>8.9755058288574201E-3</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="13">
         <v>4913</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="14">
         <v>0</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="21"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
     </row>
     <row r="12" spans="2:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="22">
+      <c r="D12" s="17">
         <v>5</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="11">
         <v>5832</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="12">
         <v>1.0970115661621E-2</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="13">
         <v>5832</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="14">
         <v>0</v>
       </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="21"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
     </row>
     <row r="13" spans="2:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="22">
+      <c r="D13" s="17">
         <v>6</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="11">
         <v>17576</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="12">
         <v>3.9895057678222601E-2</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="13">
         <v>17576</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="14">
         <v>9.9682807922363195E-4</v>
       </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="21"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="2:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="22">
+      <c r="D14" s="17">
         <v>7</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="11">
         <v>19683</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="12">
         <v>0.418903827667236</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="13">
         <v>19683</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="14">
         <v>9.9706649780273394E-4</v>
       </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="21"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
     </row>
     <row r="15" spans="2:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="22">
+      <c r="D15" s="17">
         <v>8</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="11">
         <v>234256</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="12">
         <v>0.59843349456787098</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="13">
         <v>234256</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="14">
         <v>3.9896965026855399E-3</v>
       </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="21"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
     </row>
     <row r="16" spans="2:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="22">
+      <c r="D16" s="17">
         <v>9</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="11">
         <v>390625</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="12">
         <v>0.99932456016540505</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="13">
         <v>390625</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="14">
         <v>2.9911994934082001E-3</v>
       </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="21"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
     </row>
     <row r="17" spans="2:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="22">
+      <c r="D17" s="17">
         <v>10</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="11">
         <v>614656</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="12">
         <v>0.15807731151580801</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="13">
         <v>614656</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="14">
         <v>3.9815902709960903E-3</v>
       </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="21"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
     </row>
     <row r="18" spans="2:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="22">
+      <c r="D18" s="17">
         <v>11</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="11">
         <v>1679616</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="18">
         <v>4.7004325389861998</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="13">
         <v>1679616</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="14">
         <v>5.4015874862670898E-2</v>
       </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="21"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
     </row>
     <row r="19" spans="2:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="22">
+      <c r="D19" s="17">
         <v>12</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="11">
         <v>17210368</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="18">
         <v>55.101673603057797</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="13">
         <v>17210368</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="14">
         <v>3.2944202423095703E-2</v>
       </c>
-      <c r="I19" s="20"/>
-      <c r="J19" s="21"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
     </row>
     <row r="20" spans="2:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="22">
+      <c r="D20" s="17">
         <v>13</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="11">
         <v>34012224</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="18">
         <v>112.514928340911</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="13">
         <v>34012224</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="14">
         <v>3.0916213989257799E-2</v>
       </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="21"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
     </row>
     <row r="21" spans="2:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="22">
+      <c r="D21" s="17">
         <v>14</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="11">
         <v>52521875</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="18">
         <v>178.713151693344</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="13">
         <v>52521875</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="14">
         <v>6.8810462951660101E-2</v>
       </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="21"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
     </row>
     <row r="22" spans="2:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="22">
+      <c r="D22" s="17">
         <v>15</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="11">
         <v>60466176</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="18">
         <v>203.14388203620899</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="13">
         <v>60466176</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="14">
         <v>2.8928518295287999E-2</v>
       </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="21"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
     </row>
     <row r="23" spans="2:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="22">
+      <c r="D23" s="17">
         <v>16</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="18">
+      <c r="F23" s="29"/>
+      <c r="G23" s="13">
         <v>205962976</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="14">
         <v>7.1811437606811496E-2</v>
       </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="21"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
     </row>
     <row r="24" spans="2:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="22">
+      <c r="D24" s="17">
         <v>17</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="18">
+      <c r="F24" s="29"/>
+      <c r="G24" s="13">
         <v>612220032</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="14">
         <v>0.169543266296386</v>
       </c>
-      <c r="I24" s="20"/>
-      <c r="J24" s="21"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
     </row>
     <row r="25" spans="2:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="22">
+      <c r="D25" s="17">
         <v>18</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="18">
+      <c r="F25" s="29"/>
+      <c r="G25" s="13">
         <v>8303765625</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="14">
         <v>0.403920888900756</v>
       </c>
-      <c r="I25" s="20"/>
-      <c r="J25" s="21"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
     </row>
     <row r="26" spans="2:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="22">
+      <c r="D26" s="17">
         <v>19</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="18">
+      <c r="F26" s="29"/>
+      <c r="G26" s="13">
         <v>10460353203</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="14">
         <v>0.38398313522338801</v>
       </c>
-      <c r="I26" s="20"/>
-      <c r="J26" s="21"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
     </row>
     <row r="27" spans="2:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="22">
+      <c r="D27" s="17">
         <v>20</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="18">
+      <c r="F27" s="29"/>
+      <c r="G27" s="13">
         <v>24794911296</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H27" s="14">
         <v>0.83475613594055098</v>
       </c>
-      <c r="I27" s="20"/>
-      <c r="J27" s="21"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
     </row>
     <row r="28" spans="2:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="22">
+      <c r="D28" s="17">
         <v>21</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="25"/>
-      <c r="G28" s="18">
+      <c r="F28" s="29"/>
+      <c r="G28" s="13">
         <v>27512614111</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="14">
         <v>0.87662410736083896</v>
       </c>
-      <c r="I28" s="20"/>
-      <c r="J28" s="21"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
     </row>
     <row r="29" spans="2:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="22">
+      <c r="D29" s="17">
         <v>22</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="18">
+      <c r="F29" s="29"/>
+      <c r="G29" s="13">
         <v>52523350144</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="14">
         <v>1.91890168190002</v>
       </c>
-      <c r="I29" s="20"/>
-      <c r="J29" s="21"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
     </row>
     <row r="30" spans="2:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="22">
+      <c r="D30" s="17">
         <v>23</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F30" s="25"/>
-      <c r="G30" s="18">
+      <c r="F30" s="29"/>
+      <c r="G30" s="13">
         <v>68719476736</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H30" s="14">
         <v>2.0086295604705802</v>
       </c>
-      <c r="I30" s="20"/>
-      <c r="J30" s="21"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
     </row>
     <row r="31" spans="2:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="22">
+      <c r="D31" s="17">
         <v>24</v>
       </c>
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="18">
+      <c r="F31" s="29"/>
+      <c r="G31" s="13">
         <v>271818611107</v>
       </c>
-      <c r="H31" s="19">
+      <c r="H31" s="14">
         <v>4.7732377052307102</v>
       </c>
-      <c r="I31" s="20"/>
-      <c r="J31" s="21"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
     </row>
     <row r="32" spans="2:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="22">
+      <c r="D32" s="17">
         <v>25</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E32" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F32" s="25"/>
-      <c r="G32" s="18">
+      <c r="F32" s="29"/>
+      <c r="G32" s="13">
         <v>1174711139837</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H32" s="14">
         <v>4.6356072425842196</v>
       </c>
-      <c r="I32" s="20"/>
-      <c r="J32" s="21"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
     </row>
     <row r="33" spans="2:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="22">
+      <c r="D33" s="17">
         <v>26</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="E33" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="25"/>
-      <c r="G33" s="18">
+      <c r="F33" s="29"/>
+      <c r="G33" s="13">
         <v>2207984167552</v>
       </c>
-      <c r="H33" s="19">
+      <c r="H33" s="14">
         <v>10.0242002010345</v>
       </c>
-      <c r="I33" s="20"/>
-      <c r="J33" s="21"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
     </row>
     <row r="34" spans="2:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="22">
+      <c r="D34" s="17">
         <v>27</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="25"/>
-      <c r="G34" s="18">
+      <c r="F34" s="29"/>
+      <c r="G34" s="13">
         <v>6722988818432</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H34" s="14">
         <v>25.229510068893401</v>
       </c>
-      <c r="I34" s="20"/>
-      <c r="J34" s="21"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
     </row>
     <row r="35" spans="2:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="22">
+      <c r="D35" s="17">
         <v>28</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="E35" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F35" s="25"/>
-      <c r="G35" s="18">
+      <c r="F35" s="29"/>
+      <c r="G35" s="13">
         <v>20047612231936</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H35" s="14">
         <v>23.860732793807902</v>
       </c>
-      <c r="I35" s="20"/>
-      <c r="J35" s="21"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
     </row>
     <row r="36" spans="2:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="22">
+      <c r="D36" s="17">
         <v>29</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F36" s="25"/>
-      <c r="G36" s="18">
+      <c r="F36" s="29"/>
+      <c r="G36" s="13">
         <v>72301961339136</v>
       </c>
-      <c r="H36" s="19">
+      <c r="H36" s="14">
         <v>53.716559886932302</v>
       </c>
-      <c r="I36" s="20"/>
-      <c r="J36" s="21"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
     </row>
     <row r="37" spans="2:10" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="26">
+      <c r="D37" s="19">
         <v>30</v>
       </c>
-      <c r="E37" s="27" t="s">
+      <c r="E37" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F37" s="28"/>
-      <c r="G37" s="29">
+      <c r="F37" s="31"/>
+      <c r="G37" s="20">
         <v>248155780267521</v>
       </c>
-      <c r="H37" s="30">
+      <c r="H37" s="21">
         <v>134.39624953269899</v>
       </c>
-      <c r="I37" s="20"/>
-      <c r="J37" s="21"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E29:F29"/>
@@ -2848,6 +2846,11 @@
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E24:F24"/>
@@ -2855,8 +2858,8 @@
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="E27:F27"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>